--- a/app/traffic 25.05.23.xlsx
+++ b/app/traffic 25.05.23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="137">
   <si>
     <t>319-540</t>
   </si>
@@ -22,7 +22,7 @@
     <t>555-454</t>
   </si>
   <si>
-    <t>-216</t>
+    <t>209-216</t>
   </si>
   <si>
     <t>343-657</t>
@@ -34,12 +34,12 @@
     <t>205-645</t>
   </si>
   <si>
+    <t>417-665</t>
+  </si>
+  <si>
     <t>543-681</t>
   </si>
   <si>
-    <t>417-665</t>
-  </si>
-  <si>
     <t>431-671</t>
   </si>
   <si>
@@ -52,7 +52,7 @@
     <t>335-689</t>
   </si>
   <si>
-    <t>451-623</t>
+    <t>-623</t>
   </si>
   <si>
     <t>-029</t>
@@ -61,15 +61,18 @@
     <t>533-643</t>
   </si>
   <si>
-    <t>307-603</t>
-  </si>
-  <si>
-    <t>-631</t>
+    <t>-603</t>
+  </si>
+  <si>
+    <t>501-631</t>
   </si>
   <si>
     <t>-441</t>
   </si>
   <si>
+    <t>-451</t>
+  </si>
+  <si>
     <t>-521</t>
   </si>
   <si>
@@ -103,12 +106,12 @@
     <t>ICA</t>
   </si>
   <si>
+    <t>FIN</t>
+  </si>
+  <si>
     <t>ISW</t>
   </si>
   <si>
-    <t>FIN</t>
-  </si>
-  <si>
     <t>FIP</t>
   </si>
   <si>
@@ -121,18 +124,18 @@
     <t>ICU</t>
   </si>
   <si>
+    <t>FIX</t>
+  </si>
+  <si>
+    <t>FXG</t>
+  </si>
+  <si>
+    <t>ICL</t>
+  </si>
+  <si>
     <t>ISX</t>
   </si>
   <si>
-    <t>FXG</t>
-  </si>
-  <si>
-    <t>ICL</t>
-  </si>
-  <si>
-    <t>FIX</t>
-  </si>
-  <si>
     <t>ISO</t>
   </si>
   <si>
@@ -154,27 +157,27 @@
     <t>15:15</t>
   </si>
   <si>
+    <t>18:05</t>
+  </si>
+  <si>
     <t>15:45</t>
   </si>
   <si>
     <t>15:25</t>
   </si>
   <si>
+    <t>14:00</t>
+  </si>
+  <si>
     <t>15:40</t>
   </si>
   <si>
-    <t>14:00</t>
-  </si>
-  <si>
     <t>15:50</t>
   </si>
   <si>
     <t>16:00</t>
   </si>
   <si>
-    <t>15:10</t>
-  </si>
-  <si>
     <t>14:50</t>
   </si>
   <si>
@@ -187,21 +190,21 @@
     <t>BRU</t>
   </si>
   <si>
+    <t>CPH</t>
+  </si>
+  <si>
     <t>HEL</t>
   </si>
   <si>
     <t>LGW</t>
   </si>
   <si>
-    <t>CPH</t>
+    <t>DUB</t>
   </si>
   <si>
     <t>CDG</t>
   </si>
   <si>
-    <t>DUB</t>
-  </si>
-  <si>
     <t>GLA</t>
   </si>
   <si>
@@ -214,27 +217,30 @@
     <t>BGO</t>
   </si>
   <si>
+    <t>MUC</t>
+  </si>
+  <si>
+    <t>AMS</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
     <t>LHR</t>
   </si>
   <si>
-    <t>MUC</t>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>GOH</t>
+  </si>
+  <si>
+    <t>ZRH</t>
   </si>
   <si>
     <t>ARN</t>
   </si>
   <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>GOH</t>
-  </si>
-  <si>
-    <t>ZRH</t>
-  </si>
-  <si>
     <t>16:10</t>
   </si>
   <si>
@@ -268,12 +274,12 @@
     <t>IAD</t>
   </si>
   <si>
+    <t>PDX</t>
+  </si>
+  <si>
     <t>SEA</t>
   </si>
   <si>
-    <t>PDX</t>
-  </si>
-  <si>
     <t>DEN</t>
   </si>
   <si>
@@ -319,12 +325,12 @@
     <t>9</t>
   </si>
   <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
     <t>73</t>
   </si>
   <si>
@@ -344,9 +350,6 @@
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>42</t>
   </si>
   <si>
     <t>74</t>
@@ -420,7 +423,7 @@
     <t>25.05.23</t>
   </si>
   <si>
-    <t>Gate Confirmed: 14:04</t>
+    <t>Gate Confirmed: 14:28</t>
   </si>
   <si>
     <t>Confirmed by:</t>
@@ -805,68 +808,68 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="P2" s="1" t="s">
         <v>131</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -877,22 +880,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -903,299 +906,299 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15">
-        <v>12</v>
-      </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1203,16 +1206,16 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1223,65 +1226,65 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18">
-        <v>14</v>
-      </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:8">
+      <c r="A19">
+        <v>14</v>
+      </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1289,16 +1292,16 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
         <v>69</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1306,16 +1309,16 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
         <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1323,13 +1326,16 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
         <v>71</v>
+      </c>
+      <c r="H22" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1337,16 +1343,13 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
         <v>72</v>
-      </c>
-      <c r="H23" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1354,13 +1357,16 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1368,24 +1374,38 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
         <v>55</v>
       </c>
-      <c r="H25" t="s">
-        <v>114</v>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
